--- a/biology/Zoologie/Cycloseris/Cycloseris.xlsx
+++ b/biology/Zoologie/Cycloseris/Cycloseris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cycloseris (ou corail-champignon) est un animal du genre des coraux durs, de la famille des Fungiidae[2]. Leur squelette est en forme de disque, ovale ou rond, généralement surmonté d'une fente centrale au niveau de la bouche du polype. Celle-ci est entourée de tentacules, qu'il sort la nuit pour attraper la nourriture. Ces coraux ne sont pas attachés au sol marin mais plutôt "posés" dessus. Les multiples crêtes de leur squelette sont tranchantes. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cycloseris (ou corail-champignon) est un animal du genre des coraux durs, de la famille des Fungiidae. Leur squelette est en forme de disque, ovale ou rond, généralement surmonté d'une fente centrale au niveau de la bouche du polype. Celle-ci est entourée de tentacules, qu'il sort la nuit pour attraper la nourriture. Ces coraux ne sont pas attachés au sol marin mais plutôt "posés" dessus. Les multiples crêtes de leur squelette sont tranchantes. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cycloseris comprend les espèces suivantes :
 			Cycloseris boschmai
